--- a/doc/機能一覧_ふっクラフト.xlsx
+++ b/doc/機能一覧_ふっクラフト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138DBE77-CCB8-4072-941A-B56B26072A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721863A6-8596-43FC-9BD9-4AED4BACAFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SCHEZOOLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高川俊輔</t>
     <rPh sb="0" eb="4">
       <t>タカガワシュンスケ</t>
@@ -422,9 +418,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Webアプリ製造</t>
-    <rPh sb="6" eb="8">
-      <t>セイゾウ</t>
+    <t>ScheZoole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScheZoole開発PJ</t>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -540,13 +540,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -890,7 +890,7 @@
   <dimension ref="B2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -916,39 +916,39 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>45085</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -986,23 +986,23 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1010,23 +1010,23 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -1034,22 +1034,22 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -1057,23 +1057,23 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -1081,23 +1081,23 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -1105,23 +1105,23 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -1129,23 +1129,23 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -1153,23 +1153,23 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1177,23 +1177,23 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -1201,23 +1201,23 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -1225,23 +1225,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="52" x14ac:dyDescent="0.2">
@@ -1249,23 +1249,23 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1273,23 +1273,23 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1297,23 +1297,23 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -1321,23 +1321,23 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
@@ -1345,23 +1345,23 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
